--- a/excel/excel-training/Level 1/Percentage Change Formula - BEGIN.xlsx
+++ b/excel/excel-training/Level 1/Percentage Change Formula - BEGIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonac\Dropbox\Excel Campus\Courses\Elevate\Course Files\Stage 2\Stage 2 Final Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ADE59E-413D-4EE1-8652-D4139D7EADC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9B8F4F-FE14-0146-B994-C53378BAA673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="1650" windowWidth="19200" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percent Change" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Product</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>See the following post to get the macro</t>
+  </si>
+  <si>
+    <t>Percent Change With IFERROR</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -213,7 +216,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -221,18 +224,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -749,17 +750,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="245" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -786,10 +787,16 @@
       <c r="C2" s="3">
         <v>578.91999999999996</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="8">
+        <f>(C2-B2)/B2</f>
+        <v>0.67351776370942085</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C2/B2-1</f>
+        <v>0.67351776370942074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -799,10 +806,16 @@
       <c r="C3" s="3">
         <v>193.77</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D7" si="0">(C3-B3)/B3</f>
+        <v>-0.70266994015651374</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E7" si="1">C3/B3-1</f>
+        <v>-0.70266994015651374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -812,10 +825,16 @@
       <c r="C4" s="3">
         <v>292.62</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.69240634066349915</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.69240634066349915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -825,10 +844,16 @@
       <c r="C5" s="3">
         <v>707.58</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>3.5344181640818289E-4</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>3.5344181640817318E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -838,10 +863,16 @@
       <c r="C6" s="3">
         <v>891.57</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9295456135033734E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>3.9295456135033824E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -851,8 +882,14 @@
       <c r="C7" s="3">
         <v>698.94</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.19539065467899192</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.19539065467899197</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -867,17 +904,17 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,75 +928,73 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>100</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>75</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <f>C2/B2-1</f>
         <v>-0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>250</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>125</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <f t="shared" ref="D3:D5" si="0">C3/B3-1</f>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>100</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>150</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>50</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>60</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -977,13 +1012,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,11 +1031,11 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +1070,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1086,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1102,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1083,7 +1118,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1113,16 +1148,17 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="254" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,8 +1171,11 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1147,12 +1186,15 @@
         <v>578.91999999999996</v>
       </c>
       <c r="D2" s="2">
-        <f>C2/B2-1</f>
+        <f>$C2/$B2-1</f>
         <v>0.67351776370942074</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <f>IFERROR($C2/$B2-1,"new item")</f>
+        <v>0.67351776370942074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1161,12 +1203,15 @@
         <v>193.77</v>
       </c>
       <c r="D3" s="2" t="e">
-        <f t="shared" ref="D3:D7" si="0">C3/B3-1</f>
+        <f t="shared" ref="D3:E7" si="0">$C3/$B3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="E3:E7" si="1">IFERROR($C3/$B3-1,"new item")</f>
+        <v>new item</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1180,9 +1225,12 @@
         <f t="shared" si="0"/>
         <v>-0.69240634066349915</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.69240634066349915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1196,9 +1244,12 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>new item</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1212,9 +1263,12 @@
         <f t="shared" si="0"/>
         <v>3.9295456135033824E-2</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9295456135033824E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1228,7 +1282,10 @@
         <f t="shared" si="0"/>
         <v>-0.19539065467899197</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.19539065467899197</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1245,13 +1302,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1259,7 +1316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
